--- a/4-from-pivots-to-aggregation/aggregation-demo.xlsx
+++ b/4-from-pivots-to-aggregation/aggregation-demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
   </bookViews>
   <sheets>
     <sheet name="emp" sheetId="2" r:id="rId1"/>
@@ -551,20 +551,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69140625" customWidth="1"/>
+    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.53515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -596,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9759</v>
       </c>
@@ -625,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5156</v>
       </c>
@@ -654,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9844</v>
       </c>
@@ -683,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4965</v>
       </c>
@@ -712,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5262</v>
       </c>
@@ -741,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1403</v>
       </c>
@@ -770,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8215</v>
       </c>
@@ -799,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9735</v>
       </c>
@@ -828,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7870</v>
       </c>
@@ -857,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4460</v>
       </c>
@@ -886,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3304</v>
       </c>
@@ -915,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>6811</v>
       </c>
@@ -944,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9909</v>
       </c>
@@ -973,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>6395</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4858</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>8514</v>
       </c>
@@ -1060,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>4518</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3891</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2029</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7852</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>55</v>
       </c>
@@ -1184,14 +1186,22 @@
         <f>SUM(employees[sal])</f>
         <v>35250</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F23)</f>
+        <v>=SUM(employees[sal])</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="3">
         <f>AVERAGEIF(employees[deptno],50,employees[sal])</f>
         <v>2880</v>
+      </c>
+      <c r="G24" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F24)</f>
+        <v>=AVERAGEIF(employees[deptno],50,employees[sal])</v>
       </c>
     </row>
   </sheetData>
